--- a/outputs-HGR-r202/g__Prevotellamassilia.xlsx
+++ b/outputs-HGR-r202/g__Prevotellamassilia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -806,6 +806,56 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT74916.fa</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8.497917828718891e-05</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9909804030893222</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.004036079998096174</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0004296726087719654</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0001052843142559539</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0004177557141587429</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0008892693954212333</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.844685935488499e-06</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.220315578404106e-14</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.00305071101572887</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.9909804030893222</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>s__Prevotellamassilia sp900539625</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>s__Prevotellamassilia sp900539625</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/outputs-HGR-r202/g__Prevotellamassilia.xlsx
+++ b/outputs-HGR-r202/g__Prevotellamassilia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -545,6 +550,11 @@
           <t>s__Prevotellamassilia sp900540885</t>
         </is>
       </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>s__Prevotellamassilia sp900540885</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -590,6 +600,11 @@
           <t>s__Prevotellamassilia sp900539625</t>
         </is>
       </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>s__Prevotellamassilia sp900539625</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -635,6 +650,11 @@
           <t>s__Prevotellamassilia sp900540885</t>
         </is>
       </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>s__Prevotellamassilia sp900540885</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -680,6 +700,11 @@
           <t>s__Prevotellamassilia sp900540885</t>
         </is>
       </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>s__Prevotellamassilia sp900540885</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -725,6 +750,11 @@
           <t>s__Prevotellamassilia sp900540885</t>
         </is>
       </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>s__Prevotellamassilia sp900540885</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -770,6 +800,11 @@
           <t>s__Prevotellamassilia sp900539625</t>
         </is>
       </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>s__Prevotellamassilia sp900539625</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -815,6 +850,11 @@
           <t>s__Prevotellamassilia sp900542795</t>
         </is>
       </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>s__Prevotellamassilia sp900542795</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -860,6 +900,11 @@
           <t>s__Prevotellamassilia sp900542795</t>
         </is>
       </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>s__Prevotellamassilia sp900542795</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -905,6 +950,11 @@
           <t>s__Prevotellamassilia sp900539625</t>
         </is>
       </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>s__Prevotellamassilia sp900539625</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -948,6 +998,11 @@
       <c r="M11" t="inlineStr">
         <is>
           <t>s__Prevotellamassilia sp000437675</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>s__Prevotellamassilia sp000437675(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__Prevotellamassilia.xlsx
+++ b/outputs-HGR-r202/g__Prevotellamassilia.xlsx
@@ -902,7 +902,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>s__Prevotellamassilia sp000437675</t>
+          <t>s__Prevotellamassilia sp000437675(reject)</t>
         </is>
       </c>
     </row>
